--- a/data/balance_sheet/3digits/total/851_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/851_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>851-Pre-primary education</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>851-Pre-primary education</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>18513.33846</v>
@@ -1493,29 +943,34 @@
         <v>61840.13243</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>94191.43854999999</v>
+        <v>94233.54254000001</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>146475.20071</v>
+        <v>147052.80486</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>175835.01106</v>
+        <v>189867.76349</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>266713.16305</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>410994.00278</v>
+        <v>411834.41737</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>516430.18102</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>522972.33302</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>580879.135</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>5695.2277</v>
@@ -1524,7 +979,7 @@
         <v>11673.76949</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>6231.133700000001</v>
+        <v>6231.133699999999</v>
       </c>
       <c r="F6" s="33" t="n">
         <v>11413.43236</v>
@@ -1533,35 +988,40 @@
         <v>14976.64545</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>27642.54923</v>
+        <v>27684.65322</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>42221.39561</v>
+        <v>42624.65409</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>47741.26751000001</v>
+        <v>51511.22453</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>79577.82531999999</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>86039.80828</v>
+        <v>86213.54851000001</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>120320.31179</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>120933.12917</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>207845.38</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>3803.03319</v>
       </c>
       <c r="D7" s="22" t="n">
-        <v>4208.922680000001</v>
+        <v>4208.92268</v>
       </c>
       <c r="E7" s="22" t="n">
         <v>2589.19595</v>
@@ -1573,29 +1033,34 @@
         <v>5650.4289</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>7047.805810000001</v>
+        <v>7048.8992</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>12658.10931</v>
+        <v>12969.15852</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>12244.3161</v>
+        <v>12271.09758</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>21969.14272</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>23195.28231999999</v>
+        <v>23315.94625</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>25806.68809</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>26250.20440999999</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>39604.874</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>211.40722</v>
@@ -1619,29 +1084,34 @@
         <v>488.13302</v>
       </c>
       <c r="J8" s="21" t="n">
-        <v>538.91777</v>
+        <v>838.5968200000001</v>
       </c>
       <c r="K8" s="22" t="n">
         <v>1131.29823</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>3875.3259</v>
+        <v>3905.3259</v>
       </c>
       <c r="M8" s="22" t="n">
         <v>31104.32598</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>5009.105</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>1538.28356</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>7035.643480000001</v>
+        <v>7035.64348</v>
       </c>
       <c r="E9" s="22" t="n">
         <v>3084.73436</v>
@@ -1653,29 +1123,34 @@
         <v>8216.73654</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>19229.49673</v>
+        <v>19254.78689</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>27641.79915</v>
+        <v>27682.27599</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>36049.0978</v>
+        <v>37160.40999</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>48201.11845</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>51649.52943</v>
+        <v>51672.56759</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>55648.89054</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>55804.54186</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>141773.943</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>21.8</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>10161.7881</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>6578.391</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>164.30373</v>
@@ -1733,29 +1213,34 @@
         <v>1529.8101</v>
       </c>
       <c r="H11" s="21" t="n">
-        <v>2151.15233</v>
+        <v>2166.87277</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>4761.23684</v>
+        <v>4812.96927</v>
       </c>
       <c r="J11" s="21" t="n">
-        <v>5805.91308</v>
+        <v>8138.09738</v>
       </c>
       <c r="K11" s="22" t="n">
         <v>10579.8369</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>13395.83388</v>
+        <v>13395.87202</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>17922.19528</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>17935.84502</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>28035.849</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>55.45867</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>1135.51313</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>227.458</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>46.56274</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>50.4</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>0.67677</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>15.3272</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>151.97834</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0.011</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>39.4547</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>936.9720500000001</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>177.047</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>2992.30053</v>
@@ -2016,26 +1531,31 @@
         <v>15965.47014</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>27266.24882</v>
+        <v>27277.45104</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>36304.51251</v>
+        <v>42465.254</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>60920.90869</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>84578.15509999999</v>
+        <v>85035.17844</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>136834.53295</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>139501.55874</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>112058.218</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>1883.29387</v>
@@ -2050,32 +1570,37 @@
         <v>3653.65823</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>7902.87812</v>
+        <v>7902.878119999999</v>
       </c>
       <c r="H19" s="21" t="n">
         <v>8902.390359999999</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>16252.41289</v>
+        <v>16262.60585</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>24445.84036</v>
+        <v>26460.98714</v>
       </c>
       <c r="K19" s="22" t="n">
-        <v>38791.1901</v>
+        <v>38791.19009999999</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>58229.15626</v>
+        <v>58683.56007</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>106277.53211</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>108905.04916</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>86675.91800000001</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>417.06776</v>
@@ -2099,7 +1624,7 @@
         <v>2518.12088</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>3123.18514</v>
+        <v>4206.5298</v>
       </c>
       <c r="K20" s="22" t="n">
         <v>9599.08358</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>12400.85783</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>12337.779</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>104.58103</v>
@@ -2216,35 +1756,40 @@
         <v>335.61898</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>395.57269</v>
+        <v>396.58195</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>895.02973</v>
+        <v>950.0255100000001</v>
       </c>
       <c r="K23" s="22" t="n">
         <v>1084.52411</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>2271.62749</v>
+        <v>2274.24702</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>2502.56566</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>2542.0744</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>2196.491</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
-        <v>587.3578699999999</v>
+        <v>587.35787</v>
       </c>
       <c r="D24" s="22" t="n">
         <v>667.02859</v>
       </c>
       <c r="E24" s="22" t="n">
-        <v>658.25659</v>
+        <v>658.2565900000001</v>
       </c>
       <c r="F24" s="21" t="n">
         <v>11022.9233</v>
@@ -2256,10 +1801,10 @@
         <v>5277.716649999999</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>8088.582359999999</v>
+        <v>8088.58236</v>
       </c>
       <c r="J24" s="21" t="n">
-        <v>7820.340279999999</v>
+        <v>10827.59455</v>
       </c>
       <c r="K24" s="22" t="n">
         <v>10693.39579</v>
@@ -2270,12 +1815,17 @@
       <c r="M24" s="22" t="n">
         <v>14672.50701</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>10355.386</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>29.92931</v>
@@ -2302,7 +1852,7 @@
         <v>252.29331</v>
       </c>
       <c r="K25" s="22" t="n">
-        <v>991.3207699999999</v>
+        <v>991.32077</v>
       </c>
       <c r="L25" s="22" t="n">
         <v>1093.05976</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>1428.95776</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>5248.697</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>29.92931</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>447.88742</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>4756.053</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>5587.66617</v>
@@ -2364,7 +1924,7 @@
         <v>7407.34078</v>
       </c>
       <c r="E27" s="23" t="n">
-        <v>7922.549300000001</v>
+        <v>7922.5493</v>
       </c>
       <c r="F27" s="33" t="n">
         <v>7267.91575</v>
@@ -2376,26 +1936,31 @@
         <v>8849.522429999999</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>14451.32557</v>
+        <v>14470.33364</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>21671.71811</v>
+        <v>21658.43009</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>27274.86596</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>58545.87012000001</v>
+        <v>58551.62003</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>69403.31478999999</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>70967.85328</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>75957.56200000001</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>1289.91857</v>
@@ -2416,7 +1981,7 @@
         <v>4237.05271</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>8169.859619999999</v>
+        <v>8182.73365</v>
       </c>
       <c r="J28" s="21" t="n">
         <v>9460.621529999999</v>
@@ -2428,14 +1993,19 @@
         <v>26441.37908</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>49622.67014</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>50732.83392</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>61141.387</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>1801.69215</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>31.75369</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>54.5</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>0</v>
@@ -2536,10 +2116,10 @@
         <v>117.0734</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>25.55522000000001</v>
+        <v>30.87827</v>
       </c>
       <c r="J31" s="21" t="n">
-        <v>593.2995500000001</v>
+        <v>599.95555</v>
       </c>
       <c r="K31" s="22" t="n">
         <v>96.15157000000001</v>
@@ -2550,21 +2130,26 @@
       <c r="M31" s="22" t="n">
         <v>201.9158</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>491.053</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
-        <v>4295.68377</v>
+        <v>4295.683770000001</v>
       </c>
       <c r="D32" s="22" t="n">
         <v>4081.1087</v>
       </c>
       <c r="E32" s="22" t="n">
-        <v>5144.392630000001</v>
+        <v>5144.39263</v>
       </c>
       <c r="F32" s="21" t="n">
         <v>4143.97604</v>
@@ -2573,29 +2158,34 @@
         <v>4592.317730000001</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>4495.396320000001</v>
+        <v>4495.396319999999</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>6027.961230000001</v>
+        <v>6028.77222</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>3114.84753</v>
+        <v>3094.90351</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>6551.69848</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>11829.37922</v>
+        <v>11835.12913</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>17745.28301</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>18199.65772</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>14154.172</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>2.06383</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>27.05</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>1751.95991</v>
@@ -2727,7 +2332,7 @@
         <v>3671.18534</v>
       </c>
       <c r="F36" s="33" t="n">
-        <v>5496.912459999999</v>
+        <v>5496.91246</v>
       </c>
       <c r="G36" s="23" t="n">
         <v>7057.78659</v>
@@ -2736,26 +2341,31 @@
         <v>11363.7185</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>25904.20262</v>
+        <v>26020.86249</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>37388.05971</v>
+        <v>37603.23598</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>53937.41709</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>115840.52218</v>
+        <v>115855.13439</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>117326.92066</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>118401.95863</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>101040.061</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>43.70057</v>
@@ -2767,7 +2377,7 @@
         <v>264.36074</v>
       </c>
       <c r="F37" s="21" t="n">
-        <v>834.1733399999999</v>
+        <v>834.1733400000001</v>
       </c>
       <c r="G37" s="22" t="n">
         <v>631.40288</v>
@@ -2776,10 +2386,10 @@
         <v>1788.8512</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>4279.40545</v>
+        <v>4279.405449999999</v>
       </c>
       <c r="J37" s="21" t="n">
-        <v>7804.778109999999</v>
+        <v>7827.603529999999</v>
       </c>
       <c r="K37" s="22" t="n">
         <v>11404.50658</v>
@@ -2788,14 +2398,19 @@
         <v>15649.15059</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>13708.49698</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>13768.74948</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>8646.875</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>0</v>
@@ -2828,14 +2443,19 @@
         <v>18626.57916</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>20977.3534</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>21424.08657</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>21654.872</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>0</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>6947.81433</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>2943.04</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>1311.82632</v>
@@ -2896,26 +2521,31 @@
         <v>3140.13516</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>5186.022849999999</v>
+        <v>5186.02285</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>5234.583289999999</v>
+        <v>5387.721310000001</v>
       </c>
       <c r="K40" s="22" t="n">
         <v>8007.29107</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>18729.47334</v>
+        <v>18742.47755</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>22870.02048</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>23079.95043</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>23693.383</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>11.03228</v>
@@ -2936,10 +2566,10 @@
         <v>540.18164</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>881.67328</v>
+        <v>998.3331499999999</v>
       </c>
       <c r="J41" s="21" t="n">
-        <v>2074.96594</v>
+        <v>2077.44343</v>
       </c>
       <c r="K41" s="22" t="n">
         <v>3967.11564</v>
@@ -2948,14 +2578,19 @@
         <v>5441.403960000001</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>6486.246419999999</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>6962.39772</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>6102.179</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>385.40074</v>
@@ -3013,29 +2653,34 @@
         <v>3542.09333</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>5310.707489999999</v>
+        <v>5310.70749</v>
       </c>
       <c r="I43" s="22" t="n">
         <v>12777.71646</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>20001.96289</v>
+        <v>20038.69823</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>24977.39559</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>57054.43169</v>
+        <v>57056.03969</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>46336.98905</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>46218.9601</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>37999.712</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3068,14 +2713,19 @@
         <v>3009.3109</v>
       </c>
       <c r="M44" s="23" t="n">
-        <v>4155.78554</v>
-      </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+        <v>2921.60624</v>
+      </c>
+      <c r="N44" s="23" t="n">
+        <v>5015.235</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3108,14 +2758,19 @@
         <v>3009.3109</v>
       </c>
       <c r="M45" s="22" t="n">
-        <v>3722.79585</v>
-      </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+        <v>2488.61655</v>
+      </c>
+      <c r="N45" s="22" t="n">
+        <v>4718.241</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>432.98969</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>296.994</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>299.24745</v>
@@ -3216,26 +2881,31 @@
         <v>1793.08061</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>3433.905130000001</v>
+        <v>3447.75207</v>
       </c>
       <c r="J48" s="45" t="n">
-        <v>9123.469419999999</v>
+        <v>10040.3605</v>
       </c>
       <c r="K48" s="46" t="n">
         <v>11674.53171</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>19790.16211</v>
+        <v>19790.23252</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>24116.6353</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>24229.51587</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>25839.804</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>289.87192</v>
@@ -3256,26 +2926,31 @@
         <v>1679.14925</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>3338.7803</v>
+        <v>3352.62724</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>8871.91625</v>
+        <v>9770.125769999999</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>11332.74641</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>18635.30142</v>
+        <v>18635.37183</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>22766.1796</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>22871.69412</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>25597.035</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>9.375530000000001</v>
@@ -3299,7 +2974,7 @@
         <v>95.12483</v>
       </c>
       <c r="J50" s="21" t="n">
-        <v>251.55317</v>
+        <v>270.23473</v>
       </c>
       <c r="K50" s="22" t="n">
         <v>341.7853</v>
@@ -3308,14 +2983,19 @@
         <v>1154.86069</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>1350.4557</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>1357.82175</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>242.769</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>2131.47803</v>
@@ -3336,26 +3016,31 @@
         <v>10090.07879</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>13978.71476</v>
+        <v>13992.34333</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>19334.63876</v>
+        <v>22317.91335</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>31276.12626</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>43038.07036</v>
+        <v>43227.28885</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>43137.16686</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>44881.19796</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>52895.417</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>1898.1129</v>
@@ -3376,26 +3061,31 @@
         <v>9089.90142</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>12279.0083</v>
+        <v>12292.59793</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>14601.65936</v>
+        <v>17536.25284</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>23926.20468</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>33355.95533</v>
+        <v>33542.25582999999</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>32238.21494</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>32709.9128</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>37587.397</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>0.01798</v>
@@ -3416,7 +3106,7 @@
         <v>8.36279</v>
       </c>
       <c r="I53" s="22" t="n">
-        <v>10.98634</v>
+        <v>11.02528</v>
       </c>
       <c r="J53" s="21" t="n">
         <v>15.98424</v>
@@ -3425,17 +3115,22 @@
         <v>108.367</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>1196.30788</v>
+        <v>1199.22587</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>127.24497</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>1369.33707</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>824.6420000000001</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>0</v>
@@ -3462,20 +3157,25 @@
         <v>6.97236</v>
       </c>
       <c r="K54" s="22" t="n">
-        <v>46.09588999999999</v>
+        <v>46.09589</v>
       </c>
       <c r="L54" s="22" t="n">
         <v>239.05333</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>755.3817299999999</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>755.74908</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>111.004</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>143.44745</v>
@@ -3499,23 +3199,28 @@
         <v>367.36062</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>485.56096</v>
+        <v>519.08255</v>
       </c>
       <c r="K55" s="22" t="n">
-        <v>517.78439</v>
+        <v>517.7843899999999</v>
       </c>
       <c r="L55" s="22" t="n">
         <v>784.0368300000001</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>594.14499</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>614.9756299999999</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>1236.758</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>27.11647</v>
@@ -3539,23 +3244,28 @@
         <v>1232.80497</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>3961.63089</v>
+        <v>3962.39041</v>
       </c>
       <c r="K56" s="22" t="n">
         <v>6200.3195</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>6713.955029999999</v>
+        <v>6713.95503</v>
       </c>
       <c r="M56" s="22" t="n">
         <v>8447.89687</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>8128.792</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>62.78315</v>
@@ -3576,10 +3286,10 @@
         <v>32.87309</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>82.5894</v>
+        <v>82.58940000000001</v>
       </c>
       <c r="J57" s="21" t="n">
-        <v>260.21372</v>
+        <v>274.6137199999999</v>
       </c>
       <c r="K57" s="22" t="n">
         <v>464.15017</v>
@@ -3588,14 +3298,19 @@
         <v>672.5329499999999</v>
       </c>
       <c r="M57" s="22" t="n">
-        <v>896.13666</v>
-      </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+        <v>905.1798100000001</v>
+      </c>
+      <c r="N57" s="22" t="n">
+        <v>5005.383</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>8.000000000000001e-05</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>5.63727</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>72.50942999999999</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>37780.92568</v>
@@ -3729,32 +3459,37 @@
         <v>48339.85022</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>67273.11166999998</v>
+        <v>67273.11167</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>151442.06132</v>
+        <v>151517.03985</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>215370.42778</v>
+        <v>216376.0608</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>360662.71862</v>
+        <v>384578.44127</v>
       </c>
       <c r="K61" s="36" t="n">
-        <v>466969.2754500001</v>
+        <v>466969.27545</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>641880.00051</v>
+        <v>643228.8943900001</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>768269.65218</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>785153.58355</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>780997.847</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>75.62269000000001</v>
@@ -3778,23 +3513,28 @@
         <v>994.57712</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>2982.00403</v>
+        <v>6139.73333</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>4467.64986</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>6371.24341</v>
+        <v>6373.072450000001</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>7930.54046</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>7948.11941</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>6212.073</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>32.5</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>60</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>1.4386</v>
@@ -3864,17 +3609,22 @@
         <v>374.4895</v>
       </c>
       <c r="L64" s="22" t="n">
-        <v>2030.608</v>
+        <v>2030.60801</v>
       </c>
       <c r="M64" s="22" t="n">
         <v>1442.96125</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>1361.37</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>74.18409</v>
@@ -3978,23 +3738,28 @@
         <v>421.80529</v>
       </c>
       <c r="J67" s="21" t="n">
-        <v>408.69973</v>
+        <v>3566.42903</v>
       </c>
       <c r="K67" s="22" t="n">
         <v>3857.45063</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>4233.12086</v>
+        <v>4234.949890000001</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>6455.07921</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>6472.65816</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>4790.703</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>290.21522</v>
@@ -4058,23 +3828,28 @@
         <v>448.31044</v>
       </c>
       <c r="J69" s="37" t="n">
-        <v>307.27502</v>
+        <v>307.77981</v>
       </c>
       <c r="K69" s="36" t="n">
         <v>312.51025</v>
       </c>
       <c r="L69" s="36" t="n">
-        <v>831.6412300000001</v>
+        <v>831.64124</v>
       </c>
       <c r="M69" s="36" t="n">
         <v>461.95261</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>8533.843999999999</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>290.21522</v>
@@ -4098,7 +3873,7 @@
         <v>400.6670799999999</v>
       </c>
       <c r="J70" s="21" t="n">
-        <v>214.73166</v>
+        <v>214.73167</v>
       </c>
       <c r="K70" s="22" t="n">
         <v>186.16708</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>72.5902</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>1547.86</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4144,17 +3924,22 @@
         <v>0</v>
       </c>
       <c r="L71" s="22" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
       <c r="M71" s="22" t="n">
         <v>135.45</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>4875</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>43.22069999999999</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>73.79300000000001</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>0</v>
@@ -4258,7 +4053,7 @@
         <v>47.64336</v>
       </c>
       <c r="J74" s="21" t="n">
-        <v>92.54336000000001</v>
+        <v>93.04814</v>
       </c>
       <c r="K74" s="22" t="n">
         <v>126.34317</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>210.69171</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>2037.191</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>20017.20846</v>
@@ -4381,7 +4191,7 @@
         <v>62816.25038</v>
       </c>
       <c r="K77" s="23" t="n">
-        <v>63488.60166</v>
+        <v>63488.60165999999</v>
       </c>
       <c r="L77" s="23" t="n">
         <v>72889.87388</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>93886.67762</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>65419.076</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>355.35128</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>20000</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>90241.92634000001</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>64364.676</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>17.20846</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>3289.4</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>1054.4</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>14855.81488</v>
@@ -4806,35 +4671,40 @@
         <v>21478.66883</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>39518.82184999999</v>
+        <v>39518.82185</v>
       </c>
       <c r="G88" s="23" t="n">
         <v>54062.97657</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>130174.34692</v>
+        <v>130245.93549</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>165995.71078</v>
+        <v>166779.69795</v>
       </c>
       <c r="J88" s="33" t="n">
-        <v>227131.45014</v>
+        <v>246934.74579</v>
       </c>
       <c r="K88" s="23" t="n">
         <v>321931.00541</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>443347.27604</v>
+        <v>444593.30778</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>516456.13785</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>532865.38531</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>563747.335</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>454.51056</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>62125.29033</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>64118.452</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>0</v>
@@ -4898,26 +4773,31 @@
         <v>130.42129</v>
       </c>
       <c r="J90" s="21" t="n">
-        <v>122.48633</v>
+        <v>215.93444</v>
       </c>
       <c r="K90" s="22" t="n">
         <v>1490.14628</v>
       </c>
       <c r="L90" s="22" t="n">
-        <v>864.60928</v>
+        <v>864.6092799999999</v>
       </c>
       <c r="M90" s="22" t="n">
         <v>1095.0732</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>926.725</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
-        <v>7207.4099</v>
+        <v>7207.409900000001</v>
       </c>
       <c r="D91" s="22" t="n">
         <v>7686.66729</v>
@@ -4935,26 +4815,31 @@
         <v>51965.44201000001</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>64800.82896</v>
+        <v>65113.82145999999</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>84725.75722000001</v>
+        <v>87405.38019</v>
       </c>
       <c r="K91" s="22" t="n">
         <v>135755.66508</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>200277.68927</v>
+        <v>201100.95777</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>253938.70914</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>255318.94149</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>289055.415</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>1856.00235</v>
@@ -4975,26 +4860,31 @@
         <v>2444.81915</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>5205.87379</v>
+        <v>5207.06022</v>
       </c>
       <c r="J92" s="21" t="n">
-        <v>7261.31917</v>
+        <v>7303.21341</v>
       </c>
       <c r="K92" s="22" t="n">
         <v>7004.5487</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>14888.03373</v>
+        <v>14944.57805</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>17036.33823</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>17271.3946</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>14954.299</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>4038.96654</v>
@@ -5006,7 +4896,7 @@
         <v>5691.387580000001</v>
       </c>
       <c r="F93" s="21" t="n">
-        <v>9079.411970000001</v>
+        <v>9079.411969999999</v>
       </c>
       <c r="G93" s="22" t="n">
         <v>11293.28471</v>
@@ -5015,32 +4905,37 @@
         <v>17597.52772</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>26742.30254</v>
+        <v>26857.77033</v>
       </c>
       <c r="J93" s="21" t="n">
-        <v>29617.61512999999</v>
+        <v>30436.69467</v>
       </c>
       <c r="K93" s="22" t="n">
         <v>39039.30517</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>45134.9167</v>
+        <v>45148.50992</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>49233.67673000001</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>50159.09186</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>52141.364</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>4986.04093</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>5615.26787</v>
+        <v>5615.267869999999</v>
       </c>
       <c r="E94" s="22" t="n">
         <v>6739.41493</v>
@@ -5052,29 +4947,34 @@
         <v>17347.14858</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>24007.8839</v>
+        <v>24079.47247</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>44397.26778</v>
+        <v>44951.91927</v>
       </c>
       <c r="J94" s="21" t="n">
-        <v>58616.42441000001</v>
+        <v>60780.29110000001</v>
       </c>
       <c r="K94" s="22" t="n">
-        <v>90254.55149000001</v>
+        <v>90254.55149</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>118757.55244</v>
+        <v>119140.86122</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>146346.71486</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>148935.92802</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>169457.186</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>1.82207</v>
@@ -5109,21 +5009,26 @@
       <c r="M95" s="22" t="n">
         <v>677.3710500000001</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>624.197</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
-        <v>5721.873159999999</v>
+        <v>5721.87316</v>
       </c>
       <c r="D96" s="22" t="n">
         <v>6290.508609999999</v>
       </c>
       <c r="E96" s="22" t="n">
-        <v>6932.7118</v>
+        <v>6932.711800000001</v>
       </c>
       <c r="F96" s="21" t="n">
         <v>10792.47669</v>
@@ -5135,26 +5040,31 @@
         <v>19516.55451</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>28839.56466</v>
+        <v>29039.8757</v>
       </c>
       <c r="J96" s="21" t="n">
-        <v>32685.07336</v>
+        <v>34221.50134</v>
       </c>
       <c r="K96" s="22" t="n">
         <v>45959.97022</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>60772.90342</v>
+        <v>60803.5865</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>75229.12168000001</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>77027.14508</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>96226.533</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>2032.93569</v>
@@ -5166,7 +5076,7 @@
         <v>2917.60639</v>
       </c>
       <c r="F97" s="21" t="n">
-        <v>5189.217769999999</v>
+        <v>5189.21777</v>
       </c>
       <c r="G97" s="22" t="n">
         <v>7782.21331</v>
@@ -5178,23 +5088,28 @@
         <v>35532.62387</v>
       </c>
       <c r="J97" s="21" t="n">
-        <v>22459.35049</v>
+        <v>38001.16257</v>
       </c>
       <c r="K97" s="22" t="n">
         <v>30736.67583</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>57559.89551</v>
+        <v>57559.89550999999</v>
       </c>
       <c r="M97" s="22" t="n">
-        <v>57977.80904000001</v>
-      </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+        <v>71055.16289000001</v>
+      </c>
+      <c r="N97" s="22" t="n">
+        <v>63415.908</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>0</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>3254.27695</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>5280.322</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>1632.65776</v>
@@ -5249,32 +5169,37 @@
         <v>4969.23998</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>8090.940719999999</v>
+        <v>8090.940720000001</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>11615.7202</v>
+        <v>11619.11016</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>18488.02707</v>
+        <v>18703.5418</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>29202.20532</v>
+        <v>29968.44672</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>37268.52088</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>65133.47164999999</v>
+        <v>65298.29541</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>85209.81501000001</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>85582.93234</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>80600.273</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>245.40292</v>
@@ -5298,23 +5223,28 @@
         <v>3840.87063</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>4480.086729999999</v>
+        <v>4488.68673</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>5365.83868</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>18052.28799</v>
+        <v>18076.83517</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>19664.38587000001</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>19666.62587</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>10610.617</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5338,23 +5268,28 @@
         <v>285.0969700000001</v>
       </c>
       <c r="J101" s="21" t="n">
-        <v>311.99527</v>
+        <v>317.08003</v>
       </c>
       <c r="K101" s="22" t="n">
         <v>372.16478</v>
       </c>
       <c r="L101" s="22" t="n">
-        <v>399.54105</v>
+        <v>449.54105</v>
       </c>
       <c r="M101" s="22" t="n">
-        <v>2605.597389999999</v>
-      </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+        <v>2805.597389999999</v>
+      </c>
+      <c r="N101" s="22" t="n">
+        <v>2556.564</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>33.40762</v>
@@ -5372,29 +5307,34 @@
         <v>238.79096</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>328.80917</v>
+        <v>328.8091700000001</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>517.41619</v>
+        <v>562.45887</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>622.5827200000001</v>
+        <v>631.38611</v>
       </c>
       <c r="K102" s="22" t="n">
-        <v>927.2126000000001</v>
+        <v>927.2125999999998</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>7318.44891</v>
+        <v>7330.115220000001</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>5332.84504</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>5349.901819999999</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>2773.379</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>0.88217</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>286.69658</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>246.324</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>1823.56884</v>
@@ -5452,29 +5397,34 @@
         <v>7986.519270000001</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>11222.02548</v>
+        <v>11225.41544</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>18597.27581</v>
+        <v>18861.53789</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>29095.16175</v>
+        <v>29949.73999</v>
       </c>
       <c r="K104" s="22" t="n">
         <v>40441.13729999999</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>54143.22222</v>
+        <v>54229.67197</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>76359.33573999999</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>76558.19207999999</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>96009.054</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>73.91297999999999</v>
@@ -5492,29 +5442,34 @@
         <v>523.45701</v>
       </c>
       <c r="H105" s="21" t="n">
-        <v>961.21032</v>
+        <v>961.2103199999999</v>
       </c>
       <c r="I105" s="22" t="n">
         <v>1058.76934</v>
       </c>
       <c r="J105" s="21" t="n">
-        <v>634.9554899999998</v>
+        <v>661.82203</v>
       </c>
       <c r="K105" s="22" t="n">
         <v>301.88317</v>
       </c>
       <c r="L105" s="22" t="n">
-        <v>467.6146000000001</v>
+        <v>467.6146</v>
       </c>
       <c r="M105" s="22" t="n">
         <v>580.75216</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>1864.991</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>544.5167700000001</v>
@@ -5529,32 +5484,37 @@
         <v>2404.22197</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>2548.347060000001</v>
+        <v>2548.34706</v>
       </c>
       <c r="H106" s="21" t="n">
         <v>3483.29812</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>5899.69045</v>
+        <v>5993.48048</v>
       </c>
       <c r="J106" s="21" t="n">
-        <v>7897.12134</v>
+        <v>8034.81287</v>
       </c>
       <c r="K106" s="22" t="n">
         <v>10543.27584</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>15683.36598</v>
+        <v>15691.20546</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>20316.07059</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>20361.10638</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>34128.939</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5581,20 +5541,25 @@
         <v>271.7074200000001</v>
       </c>
       <c r="K107" s="22" t="n">
-        <v>400.29606</v>
+        <v>400.2960600000001</v>
       </c>
       <c r="L107" s="22" t="n">
-        <v>377.70873</v>
+        <v>377.7087300000001</v>
       </c>
       <c r="M107" s="22" t="n">
         <v>696.2728199999999</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>668.283</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>17.93778</v>
@@ -5627,14 +5592,19 @@
         <v>516.2968</v>
       </c>
       <c r="M108" s="23" t="n">
-        <v>56.17604</v>
-      </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+        <v>59.14214</v>
+      </c>
+      <c r="N108" s="23" t="n">
+        <v>101.539</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5747,14 +5727,19 @@
         <v>16.2968</v>
       </c>
       <c r="M111" s="22" t="n">
-        <v>56.17604</v>
-      </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+        <v>59.14214</v>
+      </c>
+      <c r="N111" s="22" t="n">
+        <v>101.539</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>17.93778</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>867.69296</v>
@@ -5852,29 +5847,34 @@
         <v>3136.35058</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>6975.614699999999</v>
+        <v>6975.6147</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>27693.87153</v>
+        <v>27700.00265</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>33476.99081</v>
+        <v>33664.94232</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>34703.8582</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>42702.39368</v>
+        <v>42743.8239</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>53661.01398</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>53742.03551</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>45353.907</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>867.69296</v>
@@ -5892,29 +5892,34 @@
         <v>3136.35058</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>6975.614699999999</v>
+        <v>6975.6147</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>27693.87153</v>
+        <v>27700.00265</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>33476.99081</v>
+        <v>33664.94232</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>34677.39607</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>42627.81433</v>
+        <v>42669.24455</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>53275.30324</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>53356.32477000001</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>45299.578</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>385.71074</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>54.329</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>23.77593</v>
@@ -5984,17 +5994,22 @@
         <v>4774.132390000001</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>10087.80382</v>
+        <v>9982.58293</v>
       </c>
       <c r="M117" s="23" t="n">
         <v>10607.33861</v>
       </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+      <c r="N117" s="23" t="n">
+        <v>11029.8</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.07041</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0.59541</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>0.876</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>6.5439</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>6.544</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>701.39855</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>23.70552</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6224,17 +6264,22 @@
         <v>0</v>
       </c>
       <c r="L123" s="22" t="n">
-        <v>105.22089</v>
+        <v>0</v>
       </c>
       <c r="M123" s="22" t="n">
         <v>12.6</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>421.503</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6349,12 +6404,17 @@
       <c r="M126" s="22" t="n">
         <v>9886.20075</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>10600.877</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>56294.26414</v>
@@ -6372,26 +6432,29 @@
         <v>129113.2441</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>245633.49987</v>
+        <v>245750.58239</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>361845.62849</v>
+        <v>363428.86566</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>536497.72968</v>
+        <v>574446.20476</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>733682.4385</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>1052874.00329</v>
+        <v>1055063.31176</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>1284699.8332</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>1308125.91657</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>1361876.982</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>851-Pre-primary education</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>50974.49314</v>
@@ -6498,35 +6575,40 @@
         <v>62181.19339</v>
       </c>
       <c r="F132" s="33" t="n">
-        <v>74741.38891999998</v>
+        <v>74741.38892</v>
       </c>
       <c r="G132" s="23" t="n">
         <v>103091.08741</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>171502.00203</v>
+        <v>171532.21804</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>220212.93672</v>
+        <v>221477.80629</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>329308.3233099999</v>
+        <v>362023.04998</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>511972.65991</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>796432.59934</v>
+        <v>800171.1481700001</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>1032570.51556</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>1050104.03961</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>1017167.71</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>2604.70958</v>
@@ -6547,26 +6629,31 @@
         <v>15767.10999</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>18981.52328</v>
+        <v>19111.9067</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>31373.32503</v>
+        <v>32924.20659</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>49179.11304</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>71086.13963999999</v>
+        <v>71120.83292</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>104371.6259</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>104518.18853</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>54797.814</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>2579.93678</v>
@@ -6587,26 +6674,31 @@
         <v>15145.50843</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>17648.73587</v>
+        <v>17737.06061</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>30538.24137</v>
+        <v>31896.45583</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>46169.67255</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>68847.11444</v>
+        <v>68881.80771000001</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>99542.81081</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>99670.07021000001</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>49780.372</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>19.69174</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>1069.20471</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>0</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>76.64471</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>0</v>
@@ -6707,7 +6809,7 @@
         <v>298.87972</v>
       </c>
       <c r="I137" s="22" t="n">
-        <v>800.45697</v>
+        <v>842.5156499999999</v>
       </c>
       <c r="J137" s="21" t="n">
         <v>298.97465</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>1988.17979</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>3297.612</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>5.081060000000001</v>
@@ -6910,23 +7037,28 @@
         <v>474.07226</v>
       </c>
       <c r="J142" s="21" t="n">
-        <v>499.43492</v>
+        <v>692.10202</v>
       </c>
       <c r="K142" s="22" t="n">
         <v>448.12717</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>601.7541799999999</v>
+        <v>601.7541900000001</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>1848.0753</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>1867.37853</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>1719.83</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>22980.15601</v>
@@ -6944,29 +7076,34 @@
         <v>15870.79375</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>20408.71919</v>
+        <v>20412.92133</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>39074.58373999999</v>
+        <v>39455.24194</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>61815.40104</v>
+        <v>69262.44869</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>103677.14638</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>176509.83036</v>
+        <v>177354.11506</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>227577.60395</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>235993.14473</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>182096.029</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>22397.27958</v>
@@ -6984,29 +7121,34 @@
         <v>12977.96691</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>13952.52762</v>
+        <v>13956.72976</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>26646.95897</v>
+        <v>26849.85198</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>38944.06731000001</v>
+        <v>45628.82792</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>60334.05285</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>102814.60909</v>
+        <v>103608.02922</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>158265.94605</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>165957.36395</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>137647.953</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>335.45328</v>
@@ -7027,26 +7169,31 @@
         <v>2522.07864</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>7539.39642</v>
+        <v>7703.330089999999</v>
       </c>
       <c r="J145" s="24" t="n">
-        <v>14421.91784</v>
+        <v>15056.03544</v>
       </c>
       <c r="K145" s="25" t="n">
         <v>25517.97305</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>54009.45522</v>
+        <v>54009.45523</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>47557.78147</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>47995.53751</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>25911.837</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>21.22619</v>
@@ -7110,7 +7262,7 @@
         <v>41.71075</v>
       </c>
       <c r="J147" s="24" t="n">
-        <v>4.7</v>
+        <v>104.7</v>
       </c>
       <c r="K147" s="25" t="n">
         <v>214.5</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>364.9826</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>447.739</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>226.19696</v>
@@ -7147,26 +7304,31 @@
         <v>3845.61293</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>4846.517599999999</v>
+        <v>4860.34912</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>8444.715890000001</v>
+        <v>8472.885330000001</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>17610.62048</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>19300.52345</v>
+        <v>19351.38801</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>21388.89383</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>21675.26067</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>18088.5</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>20155.64791</v>
@@ -7184,29 +7346,34 @@
         <v>60764.50289</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>107918.40305</v>
+        <v>107934.56136</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>115476.59668</v>
+        <v>115992.98231</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>160710.24741</v>
+        <v>167940.35771</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>228859.78223</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>339578.96456</v>
+        <v>341859.65056</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>418287.17524</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>423541.64692</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>434834.904</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>19519.6091</v>
@@ -7218,7 +7385,7 @@
         <v>27684.8878</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>41286.0619</v>
+        <v>41286.06190000001</v>
       </c>
       <c r="G150" s="22" t="n">
         <v>54363.16846</v>
@@ -7227,26 +7394,31 @@
         <v>99066.13459999999</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>98284.19914999999</v>
+        <v>98737.04906</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>109308.13599</v>
+        <v>116172.8964</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>164882.53348</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>253906.10837</v>
+        <v>255996.80672</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>315266.53706</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>319191.12627</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>333704.024</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>0</v>
@@ -7276,17 +7448,22 @@
         <v>54.5</v>
       </c>
       <c r="L151" s="22" t="n">
-        <v>74.84999999999999</v>
+        <v>89.32956</v>
       </c>
       <c r="M151" s="22" t="n">
         <v>27.29251</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>58.312</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>3.75</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>9600.568440000001</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>11075.791</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>219.28293</v>
@@ -7344,35 +7526,40 @@
         <v>2406.1251</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>3591.4016</v>
+        <v>3607.55991</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>7299.51533</v>
+        <v>7363.05105</v>
       </c>
       <c r="J153" s="21" t="n">
-        <v>11741.01064</v>
+        <v>11853.78599</v>
       </c>
       <c r="K153" s="22" t="n">
         <v>17007.90316</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>26187.01225</v>
+        <v>26326.95928</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>39300.27947</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>40502.90206</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>31494.934</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>413.00588</v>
       </c>
       <c r="D154" s="22" t="n">
-        <v>7956.162179999998</v>
+        <v>7956.16218</v>
       </c>
       <c r="E154" s="22" t="n">
         <v>538.6266400000001</v>
@@ -7384,29 +7571,34 @@
         <v>3810.00109</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>4974.115809999999</v>
+        <v>4974.11581</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>9549.442299999999</v>
+        <v>9549.442300000001</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>38657.11528</v>
+        <v>38909.68982</v>
       </c>
       <c r="K154" s="22" t="n">
-        <v>44443.49633</v>
+        <v>44443.49633000001</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>52029.60465000001</v>
+        <v>52065.16571</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>54092.49776000001</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>54219.75764</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>58501.843</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,15 +7633,20 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
-        <v>627.6168</v>
+        <v>627.6167999999999</v>
       </c>
       <c r="D156" s="23" t="n">
         <v>325.9893299999999</v>
@@ -7458,19 +7655,19 @@
         <v>2055.07536</v>
       </c>
       <c r="F156" s="33" t="n">
-        <v>4495.26429</v>
+        <v>4495.264289999999</v>
       </c>
       <c r="G156" s="23" t="n">
-        <v>6872.45521</v>
+        <v>6872.455210000001</v>
       </c>
       <c r="H156" s="33" t="n">
         <v>8279.47633</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>16786.03881</v>
+        <v>16820.60281</v>
       </c>
       <c r="J156" s="33" t="n">
-        <v>24505.37301</v>
+        <v>36759.87913</v>
       </c>
       <c r="K156" s="23" t="n">
         <v>51117.15826</v>
@@ -7479,14 +7676,19 @@
         <v>99784.81948999999</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>115047.01148</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>115252.10069</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>192569.303</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>608.42502</v>
@@ -7501,32 +7703,37 @@
         <v>4419.22339</v>
       </c>
       <c r="G157" s="22" t="n">
-        <v>6602.00424</v>
+        <v>6602.004239999999</v>
       </c>
       <c r="H157" s="21" t="n">
         <v>7201.32132</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>14061.72119</v>
+        <v>14096.28519</v>
       </c>
       <c r="J157" s="21" t="n">
-        <v>21315.02979</v>
+        <v>33569.53591</v>
       </c>
       <c r="K157" s="22" t="n">
-        <v>47314.59032</v>
+        <v>47314.59032000001</v>
       </c>
       <c r="L157" s="22" t="n">
         <v>95619.21922</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>110680.5372</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>110876.77641</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>188399.683</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>19.19178</v>
@@ -7559,14 +7766,19 @@
         <v>4165.600270000001</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>4366.47428</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>4375.32428</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>4169.62</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>61.37376999999999</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>1680.326</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>19.67899</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>1680.326</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,21 +7903,26 @@
       <c r="M161" s="22" t="n">
         <v>41.69478</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>4476.402099999999</v>
       </c>
       <c r="D162" s="23" t="n">
-        <v>6381.26739</v>
+        <v>6381.267390000001</v>
       </c>
       <c r="E162" s="23" t="n">
-        <v>7755.8171</v>
+        <v>7755.817099999999</v>
       </c>
       <c r="F162" s="33" t="n">
         <v>10917.53094</v>
@@ -7704,29 +7931,34 @@
         <v>11851.96216</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>18266.02739</v>
+        <v>18275.88295</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>27708.55508</v>
+        <v>27911.4247</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>45825.52666</v>
+        <v>46476.91253</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>63333.75715</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>93227.49481999999</v>
+        <v>93758.39902</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>140724.70614</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>143360.81539</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>136760.942</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1483.26243</v>
@@ -7744,29 +7976,34 @@
         <v>3577.98494</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>5418.1801</v>
+        <v>5422.51875</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>7964.85052</v>
+        <v>8014.1007</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>13032.26269</v>
+        <v>13390.01013</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>16068.37187</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>23785.14764</v>
+        <v>23875.97438</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>35812.03808999999</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>36339.58319</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>24547.613</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>1568.90395</v>
@@ -7784,29 +8021,34 @@
         <v>3623.55772</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>5833.7192</v>
+        <v>5839.23611</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>9929.742320000001</v>
+        <v>9990.40891</v>
       </c>
       <c r="J164" s="21" t="n">
-        <v>14068.75267</v>
+        <v>14362.3911</v>
       </c>
       <c r="K164" s="22" t="n">
         <v>23228.21173</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>31668.69778</v>
+        <v>31764.0469</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>50067.86141</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>51247.48937</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>36035.838</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>1419.85565</v>
@@ -7827,7 +8069,7 @@
         <v>6955.60259</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>9655.965229999998</v>
+        <v>9748.918079999999</v>
       </c>
       <c r="J165" s="21" t="n">
         <v>18670.19274</v>
@@ -7836,17 +8078,22 @@
         <v>22247.24365</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>35543.49367</v>
+        <v>35887.74601</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>54024.51751</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>54941.9387</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>72895.71799999999</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>4.38007</v>
@@ -7876,20 +8123,25 @@
         <v>1789.9299</v>
       </c>
       <c r="L166" s="22" t="n">
-        <v>2230.15573</v>
+        <v>2230.63173</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>820.2891299999999</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>831.80413</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>3281.773</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
-        <v>58.9046</v>
+        <v>58.90460000000001</v>
       </c>
       <c r="D167" s="23" t="n">
         <v>89.7903</v>
@@ -7907,26 +8159,31 @@
         <v>257.59482</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>330.79624</v>
+        <v>330.80494</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>587.06175</v>
+        <v>588.7542099999999</v>
       </c>
       <c r="K167" s="23" t="n">
-        <v>544.9578</v>
+        <v>544.9577999999999</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>901.10605</v>
+        <v>902.64156</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>999.6340499999999</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>1156.08906</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>2724.527</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>203.40696</v>
@@ -7944,29 +8201,34 @@
         <v>746.51572</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>970.09785</v>
+        <v>970.0978500000001</v>
       </c>
       <c r="I168" s="22" t="n">
         <v>1239.84413</v>
       </c>
       <c r="J168" s="21" t="n">
-        <v>1569.88586</v>
+        <v>1569.37064</v>
       </c>
       <c r="K168" s="22" t="n">
         <v>1844.65001</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>2226.93141</v>
+        <v>2228.46692</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>2418.89618</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>2561.64762</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>5817.961</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>144.50236</v>
@@ -7984,13 +8246,13 @@
         <v>496.09049</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>720.91366</v>
+        <v>720.9136599999999</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>917.14444</v>
+        <v>917.1357399999999</v>
       </c>
       <c r="J169" s="21" t="n">
-        <v>982.9186099999998</v>
+        <v>980.71093</v>
       </c>
       <c r="K169" s="22" t="n">
         <v>1316.42561</v>
@@ -7999,14 +8261,19 @@
         <v>1358.50512</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>1420.93991</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>1407.23634</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>3093.434</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>1.67778</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>71.05614</v>
@@ -8150,23 +8432,28 @@
         <v>1841.35107</v>
       </c>
       <c r="J173" s="33" t="n">
-        <v>4451.94277</v>
+        <v>8031.045480000001</v>
       </c>
       <c r="K173" s="23" t="n">
         <v>10075.93898</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>15200.57549</v>
+        <v>15242.05437</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>25127.694</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>25144.87381</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>11265.604</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>8.239370000000001</v>
@@ -8190,23 +8477,28 @@
         <v>891.2636100000001</v>
       </c>
       <c r="J174" s="21" t="n">
-        <v>1404.02496</v>
+        <v>4979.13717</v>
       </c>
       <c r="K174" s="22" t="n">
         <v>7593.8077</v>
       </c>
       <c r="L174" s="22" t="n">
-        <v>9740.036630000001</v>
+        <v>9771.2958</v>
       </c>
       <c r="M174" s="22" t="n">
-        <v>21193.36482</v>
-      </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+        <v>21193.44132</v>
+      </c>
+      <c r="N174" s="22" t="n">
+        <v>8158.025</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>62.81677</v>
@@ -8230,23 +8522,28 @@
         <v>950.08746</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>3047.91781</v>
+        <v>3051.90831</v>
       </c>
       <c r="K175" s="22" t="n">
         <v>2482.13128</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>5460.53886</v>
+        <v>5470.75857</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>3934.32918</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>3951.43249</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>3107.579</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>0</v>
@@ -8276,17 +8573,22 @@
         <v>5184.806070000001</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>143.66893</v>
+        <v>148.63519</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>373.69103</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>1075.80671</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>438.261</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8316,17 +8618,22 @@
         <v>68.29505999999999</v>
       </c>
       <c r="L177" s="22" t="n">
-        <v>142.8715</v>
+        <v>147.83776</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>237.87005</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>939.98573</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>432.095</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>36.55086</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>6.166</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>99.27011999999999</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,15 +8803,20 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
-        <v>4009.70081</v>
+        <v>4009.700809999999</v>
       </c>
       <c r="D182" s="23" t="n">
         <v>2291.4148</v>
@@ -8504,29 +8831,34 @@
         <v>17656.32297</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>32833.4064</v>
+        <v>33162.48477</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>86238.50877</v>
+        <v>86512.13691</v>
       </c>
       <c r="J182" s="33" t="n">
-        <v>115570.90607</v>
+        <v>116868.30004</v>
       </c>
       <c r="K182" s="23" t="n">
         <v>134360.47883</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>209229.34118</v>
+        <v>209490.48908</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>258389.89317</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>266861.00401</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>298947.079</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>648.53739</v>
@@ -8547,10 +8879,10 @@
         <v>21984.9325</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>61062.54266</v>
+        <v>61336.1708</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>81644.26971000001</v>
+        <v>82949.52809000001</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>93647.05051999999</v>
@@ -8559,14 +8891,19 @@
         <v>145675.77363</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>133442.27699</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>137167.34617</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>161662.286</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>648.53739</v>
@@ -8587,10 +8924,10 @@
         <v>21873.08677</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>60721.81685</v>
+        <v>60995.44499</v>
       </c>
       <c r="J184" s="21" t="n">
-        <v>81391.49609</v>
+        <v>82696.75447</v>
       </c>
       <c r="K184" s="22" t="n">
         <v>93506.66527</v>
@@ -8599,14 +8936,19 @@
         <v>141523.66076</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>130794.67307</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>134519.74225</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>161662.286</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>0</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>2820.09986</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>0</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>172.49594</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>0</v>
@@ -8864,7 +9236,7 @@
         <v>1040.18948</v>
       </c>
       <c r="H191" s="33" t="n">
-        <v>1531.36426</v>
+        <v>1860.44263</v>
       </c>
       <c r="I191" s="23" t="n">
         <v>1075.83684</v>
@@ -8879,14 +9251,19 @@
         <v>4581.3826</v>
       </c>
       <c r="M191" s="23" t="n">
-        <v>21733.33755</v>
-      </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+        <v>21736.83755</v>
+      </c>
+      <c r="N191" s="23" t="n">
+        <v>13409.573</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>0</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>6048.01828</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>401.005</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8944,7 +9326,7 @@
         <v>500</v>
       </c>
       <c r="H193" s="21" t="n">
-        <v>1191.61537</v>
+        <v>1449.41819</v>
       </c>
       <c r="I193" s="22" t="n">
         <v>867.3870899999999</v>
@@ -8959,14 +9341,19 @@
         <v>2163.64102</v>
       </c>
       <c r="M193" s="22" t="n">
-        <v>13292.81974</v>
-      </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+        <v>13296.31974</v>
+      </c>
+      <c r="N193" s="22" t="n">
+        <v>6515.985</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9064,7 +9461,7 @@
         <v>0</v>
       </c>
       <c r="H196" s="21" t="n">
-        <v>0</v>
+        <v>71.27555000000001</v>
       </c>
       <c r="I196" s="22" t="n">
         <v>157.88955</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>2392.49953</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>6492.583</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>3360.49454</v>
@@ -9110,23 +9512,28 @@
         <v>19833.06454</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>26809.04463</v>
+        <v>26801.18022</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>35434.25923</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>55118.80556</v>
+        <v>55379.95346</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>91809.25928</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>93386.80094</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>109283</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>2975.68186</v>
@@ -9150,23 +9557,28 @@
         <v>19021.66235</v>
       </c>
       <c r="J198" s="21" t="n">
-        <v>25491.88948</v>
+        <v>25484.02507</v>
       </c>
       <c r="K198" s="22" t="n">
         <v>33311.41537</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>49834.53524</v>
+        <v>50095.68314</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>84102.69325</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>85511.99993000001</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>101363.054</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>219.33329</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>219.333</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>379.41933</v>
@@ -9279,14 +9701,19 @@
         <v>643.23498</v>
       </c>
       <c r="M201" s="22" t="n">
-        <v>339.30096</v>
-      </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+        <v>507.53594</v>
+      </c>
+      <c r="N201" s="22" t="n">
+        <v>3022.193</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>5.393350000000001</v>
@@ -9359,14 +9791,19 @@
         <v>4421.70205</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>7147.931779999999</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>7147.93178</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>4678.42</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9399,14 +9836,19 @@
         <v>0</v>
       </c>
       <c r="M204" s="23" t="n">
-        <v>4386.99679</v>
-      </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+        <v>7551.99679</v>
+      </c>
+      <c r="N204" s="23" t="n">
+        <v>3625.92</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>4386.99679</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>3625.92</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9479,14 +9926,19 @@
         <v>0</v>
       </c>
       <c r="M206" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+        <v>3165</v>
+      </c>
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>0</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>15.33804</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>760.4349999999999</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>0</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>15.33804</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>160.435</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>600</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>0.66888</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>6716.14263</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>9905.380999999999</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>0</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>1278.17855</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>5367.084</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0.66888</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>5437.96408</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>4538.297</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>286.54189</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>300.484</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,52 +10378,62 @@
       <c r="M216" s="35" t="n">
         <v>286.54189</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>300.484</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>1310.07019</v>
       </c>
       <c r="D217" s="23" t="n">
-        <v>4180.331250000001</v>
+        <v>4180.33125</v>
       </c>
       <c r="E217" s="23" t="n">
         <v>6076.085170000001</v>
       </c>
       <c r="F217" s="33" t="n">
-        <v>6176.593049999999</v>
+        <v>6176.59305</v>
       </c>
       <c r="G217" s="23" t="n">
         <v>8365.833719999999</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>41298.09144</v>
+        <v>41055.87958</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>55394.183</v>
+        <v>55438.92246</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>91618.50029999999</v>
+        <v>95554.85474</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>87349.29975999999</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>47212.06277000001</v>
+        <v>45401.67451</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>-6260.575530000001</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>-8839.127050000001</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>45762.193</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>18008.82825</v>
@@ -9944,29 +10451,34 @@
         <v>48317.60736</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>107623.33674</v>
+        <v>107663.33674</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>152850.39677</v>
+        <v>153320.39677</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>228096.84684</v>
+        <v>233149.34684</v>
       </c>
       <c r="K218" s="23" t="n">
-        <v>280289.6284099999</v>
+        <v>280289.62841</v>
       </c>
       <c r="L218" s="23" t="n">
         <v>352467.32975</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>385566.63168</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>388816.17174</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>384902.085</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>19084.74819</v>
@@ -9984,29 +10496,34 @@
         <v>54877.36189</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>118732.08408</v>
+        <v>118772.08408</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>165207.79408</v>
+        <v>165857.79408</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>247475.18885</v>
+        <v>252565.18885</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>308882.23575</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>387231.38533</v>
+        <v>390181.38533</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>423168.39446</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>432625.39446</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>434566.578</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>4929.57246</v>
@@ -10027,26 +10544,31 @@
         <v>12622.48277</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>14625.74835</v>
+        <v>14805.74835</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>21434.85839</v>
+        <v>21472.35839</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>30271.76416</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>36409.54661</v>
+        <v>39359.54661</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>39197.98822</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>45409.06964</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>51209.714</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>3864.01254</v>
@@ -10079,14 +10601,19 @@
         <v>1646.39779</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>1597.1322</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>1600.75368</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>1546.128</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>10.36002</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0.90676</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0.907</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>50.46833</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>33842.69707</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>35328.367</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>50.46833</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>84.60798000000001</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>49.04</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>14.5</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>0</v>
@@ -10441,12 +11008,17 @@
       <c r="M230" s="22" t="n">
         <v>33743.58909</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>35264.827</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>612.79919</v>
@@ -10458,7 +11030,7 @@
         <v>636.2482199999999</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>940.20281</v>
+        <v>940.2028099999999</v>
       </c>
       <c r="G231" s="23" t="n">
         <v>1344.39339</v>
@@ -10467,10 +11039,10 @@
         <v>12643.66718</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>4778.824080000001</v>
+        <v>4782.020469999999</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>4838.221579999999</v>
+        <v>5136.22158</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>18762.10149</v>
@@ -10479,14 +11051,19 @@
         <v>18523.13182</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>20384.44868</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>20384.91939</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>12371.885</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>253.20639</v>
@@ -10507,26 +11084,31 @@
         <v>921.05576</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>1282.5523</v>
+        <v>1285.74869</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>1118.06806</v>
+        <v>1416.06806</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>4847.584019999999</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>5014.679349999999</v>
+        <v>5014.67935</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>5760.86804</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>5761.33875</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>6788.428</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>0.24138</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>260.66221</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>451.043</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>50.05014</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>11823.0924</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>2462.581</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>1.57896</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>28.47697</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>28.477</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>307.72232</v>
@@ -10681,18 +11278,23 @@
       <c r="M236" s="22" t="n">
         <v>2511.34906</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>2641.356</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>4656.31636</v>
       </c>
       <c r="D237" s="23" t="n">
-        <v>5115.38905</v>
+        <v>5115.389050000001</v>
       </c>
       <c r="E237" s="23" t="n">
         <v>5965.70081</v>
@@ -10707,26 +11309,31 @@
         <v>21813.86631</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>32980.92526</v>
+        <v>33041.65659000001</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>31008.85034</v>
+        <v>39743.26940999999</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>43625.98844</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>57409.82174000001</v>
+        <v>57906.57118</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>82530.16409000001</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>83897.87406999999</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>119539.759</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-18819.22616</v>
@@ -10738,35 +11345,40 @@
         <v>-22199.04287</v>
       </c>
       <c r="F238" s="33" t="n">
-        <v>-42719.11752</v>
+        <v>-42719.11751999999</v>
       </c>
       <c r="G238" s="23" t="n">
         <v>-51321.22779</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-73205.47093</v>
+        <v>-73433.04155999998</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-107472.83053</v>
+        <v>-107824.35964</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-124965.81471</v>
+        <v>-130397.82642</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-179519.90317</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-272004.41655</v>
+        <v>-272556.3219</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-374184.97751</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-378969.0313</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-490330.185</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>-3199.11578</v>
@@ -10784,29 +11396,34 @@
         <v>-14154.16556</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>-28930.46964</v>
+        <v>-28985.11087</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-30047.11599</v>
+        <v>-30184.77514</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-50475.81814</v>
+        <v>-55192.37106</v>
       </c>
       <c r="K239" s="23" t="n">
-        <v>-79904.42763000001</v>
+        <v>-79904.42762999999</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-124225.81253</v>
+        <v>-125981.04488</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>-154399.53954</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>-156811.75802</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-16049.718</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>2148.17184</v>
@@ -10821,35 +11438,40 @@
         <v>6315.11</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>6663.261169999999</v>
+        <v>6663.26117</v>
       </c>
       <c r="H240" s="21" t="n">
         <v>7630.431060000001</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>13181.20985</v>
+        <v>13270.25897</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>21298.84491</v>
+        <v>21439.5332</v>
       </c>
       <c r="K240" s="22" t="n">
         <v>21467.07736</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>28324.55643</v>
+        <v>28554.90092</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>39208.42284</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>39959.6647</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>78893.54700000001</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
-        <v>5347.28762</v>
+        <v>5347.287619999999</v>
       </c>
       <c r="D241" s="22" t="n">
         <v>5657.14088</v>
@@ -10864,35 +11486,40 @@
         <v>20817.42673</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>36560.9007</v>
+        <v>36615.54193</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>43228.32584</v>
+        <v>43455.03411</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>71774.66305</v>
+        <v>76631.90426000001</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>101371.50499</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>152550.36896</v>
+        <v>154535.9458</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>193607.96238</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>196771.42272</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>94943.265</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>56294.26414</v>
       </c>
       <c r="D242" s="47" t="n">
-        <v>68056.67410999998</v>
+        <v>68056.67410999999</v>
       </c>
       <c r="E242" s="47" t="n">
         <v>72082.54115999999</v>
@@ -10904,26 +11531,29 @@
         <v>129113.2441</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>245633.49987</v>
+        <v>245750.58239</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>361845.62849</v>
+        <v>363428.86566</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>536497.72968</v>
+        <v>574446.20476</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>733682.4385</v>
+        <v>733682.4385000002</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>1052874.00329</v>
+        <v>1055063.31176</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>1284699.8332</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>1308125.91657</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>1361876.982</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>199</v>
@@ -10960,26 +11593,29 @@
         <v>461</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>846</v>
+        <v>856</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>1033</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>1156</v>
+        <v>1203</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>1212</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>1284</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>1353</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>